--- a/OTHERS/Investment/Investment-Transaction-InZerodha.xlsx
+++ b/OTHERS/Investment/Investment-Transaction-InZerodha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\03-PC\Technologies-GITHUB\OTHERS\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C684CC6-0036-42D9-834C-94E0BA8B84B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C32D7-83DA-4FB8-A367-1DB0129724D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,12 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,12 +388,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.36328125" customWidth="1"/>
     <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1"/>
@@ -441,20 +442,28 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>949207</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10089</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>959296</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>

--- a/OTHERS/Investment/Investment-Transaction-InZerodha.xlsx
+++ b/OTHERS/Investment/Investment-Transaction-InZerodha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\03-PC\Technologies-GITHUB\OTHERS\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C32D7-83DA-4FB8-A367-1DB0129724D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7C6193-6080-4968-8355-A4AF1748ACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,15 +63,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,17 +100,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.36328125" customWidth="1"/>
     <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1"/>
@@ -401,19 +422,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -442,7 +463,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>949207</v>
       </c>
       <c r="E3" s="1"/>
@@ -463,11 +484,60 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B5" s="1">
+        <v>37000</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4">
+        <v>996296</v>
+      </c>
       <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3365</v>
+      </c>
+      <c r="D6" s="4">
+        <v>992931</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>50351.8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>942579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>122000</v>
+      </c>
+      <c r="D8" s="9">
+        <v>820579</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
